--- a/CSV obtenidos/J5_heatmaps_jugadores.xlsx
+++ b/CSV obtenidos/J5_heatmaps_jugadores.xlsx
@@ -9,20 +9,20 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gabriel Costa" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sebastián Rodríguez" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Freytes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Serna" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hernán Barcos" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Freytes" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cecilio Waterman" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hernán Barcos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jiovany Ramos" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Catriel Cabellos" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renzo Garces" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Serna" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Catriel Cabellos" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renzo Garces" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhamir D´Arrigo" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adrián Arregui" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhamir D´Arrigo" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Víctor Guzmán" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Franco Zanelatto" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Moyano" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Franco Saravia" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ricardo Lagos" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jiovany Ramos" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Moyano" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Víctor Guzmán" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Franco Zanelatto" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ricardo Lagos" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Franco Saravia" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1678,7 +1678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1700,170 +1700,498 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B8" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B10" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B16" t="n">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" t="n">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B18" t="n">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B19" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>84</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>89</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>91</v>
+      </c>
+      <c r="B28" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>79</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>79</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>46</v>
+      </c>
+      <c r="B32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>48</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>29</v>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>46</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>51</v>
+      </c>
+      <c r="B39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>45</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>17</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52</v>
+      </c>
+      <c r="B43" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>16</v>
+      </c>
+      <c r="B44" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>51</v>
+      </c>
+      <c r="B48" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>51</v>
+      </c>
+      <c r="B49" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>29</v>
+      </c>
+      <c r="B51" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>23</v>
+      </c>
+      <c r="B53" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31</v>
+      </c>
+      <c r="B55" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33</v>
+      </c>
+      <c r="B56" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>48</v>
+      </c>
+      <c r="B58" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31</v>
+      </c>
+      <c r="B59" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>49</v>
+      </c>
+      <c r="B60" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>30</v>
+      </c>
+      <c r="B61" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>49</v>
+      </c>
+      <c r="B62" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>29</v>
+      </c>
+      <c r="B63" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1872,6 +2200,85 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58</v>
+      </c>
+      <c r="B7" t="n">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1998,7 +2405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2061,13 +2468,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2089,50 +2496,346 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B6" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>84</v>
+      </c>
+      <c r="B8" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>97</v>
+      </c>
+      <c r="B9" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>98</v>
+      </c>
+      <c r="B10" t="n">
         <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53</v>
+      </c>
+      <c r="B11" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65</v>
+      </c>
+      <c r="B12" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>89</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>99</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>99</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>43</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>79</v>
+      </c>
+      <c r="B18" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>85</v>
+      </c>
+      <c r="B21" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56</v>
+      </c>
+      <c r="B22" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>82</v>
+      </c>
+      <c r="B26" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>82</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>25</v>
+      </c>
+      <c r="B30" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>68</v>
+      </c>
+      <c r="B31" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>84</v>
+      </c>
+      <c r="B33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21</v>
+      </c>
+      <c r="B34" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>21</v>
+      </c>
+      <c r="B35" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>83</v>
+      </c>
+      <c r="B36" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>89</v>
+      </c>
+      <c r="B37" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>84</v>
+      </c>
+      <c r="B38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>83</v>
+      </c>
+      <c r="B39" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>97</v>
+      </c>
+      <c r="B40" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>97</v>
+      </c>
+      <c r="B41" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55</v>
+      </c>
+      <c r="B42" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36</v>
+      </c>
+      <c r="B43" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39</v>
+      </c>
+      <c r="B44" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2428,381 +3131,6 @@
       </c>
       <c r="B34" t="n">
         <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>91</v>
-      </c>
-      <c r="B2" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>52</v>
-      </c>
-      <c r="B4" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B5" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>64</v>
-      </c>
-      <c r="B6" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>21</v>
-      </c>
-      <c r="B7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>84</v>
-      </c>
-      <c r="B8" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>97</v>
-      </c>
-      <c r="B9" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>98</v>
-      </c>
-      <c r="B10" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>53</v>
-      </c>
-      <c r="B11" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>65</v>
-      </c>
-      <c r="B12" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>59</v>
-      </c>
-      <c r="B13" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>89</v>
-      </c>
-      <c r="B14" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>99</v>
-      </c>
-      <c r="B15" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>99</v>
-      </c>
-      <c r="B16" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>43</v>
-      </c>
-      <c r="B17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>79</v>
-      </c>
-      <c r="B18" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>35</v>
-      </c>
-      <c r="B19" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>39</v>
-      </c>
-      <c r="B20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>85</v>
-      </c>
-      <c r="B21" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>56</v>
-      </c>
-      <c r="B22" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>26</v>
-      </c>
-      <c r="B25" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>82</v>
-      </c>
-      <c r="B26" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>82</v>
-      </c>
-      <c r="B27" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>12</v>
-      </c>
-      <c r="B28" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>12</v>
-      </c>
-      <c r="B29" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>68</v>
-      </c>
-      <c r="B31" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>40</v>
-      </c>
-      <c r="B32" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>84</v>
-      </c>
-      <c r="B33" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>21</v>
-      </c>
-      <c r="B34" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>21</v>
-      </c>
-      <c r="B35" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>83</v>
-      </c>
-      <c r="B36" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>89</v>
-      </c>
-      <c r="B37" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>84</v>
-      </c>
-      <c r="B38" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>83</v>
-      </c>
-      <c r="B39" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>97</v>
-      </c>
-      <c r="B40" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>97</v>
-      </c>
-      <c r="B41" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>55</v>
-      </c>
-      <c r="B42" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>36</v>
-      </c>
-      <c r="B43" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>39</v>
-      </c>
-      <c r="B44" t="n">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3575,6 +3903,229 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64</v>
+      </c>
+      <c r="B7" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>92</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>95</v>
+      </c>
+      <c r="B9" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>85</v>
+      </c>
+      <c r="B10" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>88</v>
+      </c>
+      <c r="B12" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>91</v>
+      </c>
+      <c r="B13" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>95</v>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>96</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55</v>
+      </c>
+      <c r="B18" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59</v>
+      </c>
+      <c r="B20" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60</v>
+      </c>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55</v>
+      </c>
+      <c r="B22" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>43</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>49</v>
+      </c>
+      <c r="B24" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65</v>
+      </c>
+      <c r="B25" t="n">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4337,405 +4888,6 @@
       </c>
       <c r="B94" t="n">
         <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>76</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>81</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>75</v>
-      </c>
-      <c r="B5" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>45</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>73</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>72</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>54</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>73</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>64</v>
-      </c>
-      <c r="B11" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>64</v>
-      </c>
-      <c r="B12" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>32</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>32</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>58</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>45</v>
-      </c>
-      <c r="B16" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>89</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>62</v>
-      </c>
-      <c r="B18" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>92</v>
-      </c>
-      <c r="B19" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>92</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>73</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>91</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>64</v>
-      </c>
-      <c r="B23" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>91</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>97</v>
-      </c>
-      <c r="B25" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>52</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>83</v>
-      </c>
-      <c r="B27" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>80</v>
-      </c>
-      <c r="B28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>73</v>
-      </c>
-      <c r="B29" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>59</v>
-      </c>
-      <c r="B30" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>86</v>
-      </c>
-      <c r="B31" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>96</v>
-      </c>
-      <c r="B32" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>71</v>
-      </c>
-      <c r="B33" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>70</v>
-      </c>
-      <c r="B34" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>76</v>
-      </c>
-      <c r="B35" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>89</v>
-      </c>
-      <c r="B36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>89</v>
-      </c>
-      <c r="B37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>85</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>72</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>71</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>82</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>62</v>
-      </c>
-      <c r="B42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>87</v>
-      </c>
-      <c r="B43" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>62</v>
-      </c>
-      <c r="B44" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>85</v>
-      </c>
-      <c r="B45" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>33</v>
-      </c>
-      <c r="B46" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5068,7 +5220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5090,194 +5242,370 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B8" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B10" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B17" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B18" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B20" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B22" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B24" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B25" t="n">
-        <v>41</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>83</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>80</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>73</v>
+      </c>
+      <c r="B29" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>86</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>96</v>
+      </c>
+      <c r="B32" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>71</v>
+      </c>
+      <c r="B33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>70</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>76</v>
+      </c>
+      <c r="B35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>89</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>89</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>85</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>72</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>71</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>82</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>87</v>
+      </c>
+      <c r="B43" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>85</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33</v>
+      </c>
+      <c r="B46" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33</v>
+      </c>
+      <c r="B47" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5286,533 +5614,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B2" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B3" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>85</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>40</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>85</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>64</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>44</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>52</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>65</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>40</v>
-      </c>
-      <c r="B11" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>92</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>45</v>
-      </c>
-      <c r="B13" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>74</v>
-      </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>65</v>
-      </c>
-      <c r="B15" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>65</v>
-      </c>
-      <c r="B16" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>60</v>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>95</v>
-      </c>
-      <c r="B18" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>91</v>
-      </c>
-      <c r="B19" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>30</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>35</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>42</v>
-      </c>
-      <c r="B22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>89</v>
-      </c>
-      <c r="B23" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>30</v>
-      </c>
-      <c r="B24" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>42</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>22</v>
-      </c>
-      <c r="B26" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>91</v>
-      </c>
-      <c r="B28" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>24</v>
-      </c>
-      <c r="B29" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>79</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>79</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>46</v>
-      </c>
-      <c r="B32" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>48</v>
-      </c>
-      <c r="B33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>39</v>
-      </c>
-      <c r="B35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>29</v>
-      </c>
-      <c r="B36" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>20</v>
-      </c>
-      <c r="B37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>46</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>51</v>
-      </c>
-      <c r="B39" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>7</v>
-      </c>
-      <c r="B40" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>45</v>
-      </c>
-      <c r="B41" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>17</v>
-      </c>
-      <c r="B42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>52</v>
-      </c>
-      <c r="B43" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>16</v>
-      </c>
-      <c r="B44" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>18</v>
-      </c>
-      <c r="B45" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>46</v>
-      </c>
-      <c r="B46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>56</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>51</v>
-      </c>
-      <c r="B48" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>51</v>
-      </c>
-      <c r="B49" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>10</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>29</v>
-      </c>
-      <c r="B51" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>25</v>
-      </c>
-      <c r="B52" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>23</v>
-      </c>
-      <c r="B53" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>13</v>
-      </c>
-      <c r="B54" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>31</v>
-      </c>
-      <c r="B55" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>33</v>
-      </c>
-      <c r="B56" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>39</v>
-      </c>
-      <c r="B57" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>48</v>
-      </c>
-      <c r="B58" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>31</v>
-      </c>
-      <c r="B59" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>49</v>
-      </c>
-      <c r="B60" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>30</v>
-      </c>
-      <c r="B61" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>49</v>
-      </c>
-      <c r="B62" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>29</v>
-      </c>
-      <c r="B63" t="n">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6003,7 +5804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6496,4 +6297,203 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B3" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56</v>
+      </c>
+      <c r="B4" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B6" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B8" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33</v>
+      </c>
+      <c r="B9" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33</v>
+      </c>
+      <c r="B10" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66</v>
+      </c>
+      <c r="B11" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>78</v>
+      </c>
+      <c r="B12" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>78</v>
+      </c>
+      <c r="B13" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>69</v>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>77</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>30</v>
+      </c>
+      <c r="B16" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58</v>
+      </c>
+      <c r="B17" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29</v>
+      </c>
+      <c r="B20" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38</v>
+      </c>
+      <c r="B21" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59</v>
+      </c>
+      <c r="B22" t="n">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>